--- a/Statystyki_2018/Template/oopp.xlsx
+++ b/Statystyki_2018/Template/oopp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="58">
   <si>
     <t xml:space="preserve">lp</t>
   </si>
@@ -339,270 +339,6 @@
   <si>
     <t xml:space="preserve">ponad 3 mies. </t>
   </si>
-  <si>
-    <t xml:space="preserve">Miesiąc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zaległość z poprzedniego roku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WPŁYW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wyznaczono</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Załatwiono</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZAŁATWIENIA</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">sesje odbyte
-przez sędziego
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">na potrzeby MS-S)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">POZOSTAŁOŚĆ
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">na następny miesiąc</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">pozostało spraw starych </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">- wszystkie kategorie spraw
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(bez czasu trwania mediacji, zgodnie z dz. 2.1.1.1 MS-S11r)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">stan spraw
-zawieszonych </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(wszystkie kategorie spraw, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">bez czasu trwania mediacji, zgodnie z MS-S11r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">terminowość sporządzonych uzasadnień
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(zgodnie z MS-S11r, dz. 1.4 - tylko kat. U, P, Np) *</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">mediacje</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UWAGI</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Kolumna kontrolna</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (wyznaczenia&gt;=załatwień)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">do 3
-m-cy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pow.
-6 do 12 m-cy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pow.
-12 m-cy do 2 lat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pow.
-3 do 5 lat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pow.
-5 do 8 lat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uzasadnienia wygłoszone **</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liczba spraw, w których projekt uzasadnienia orzeczenia sporządził asystent*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wpływ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rozstrzygnięcie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">posiedzenia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> liczba  spraw, w których strony skierowano do mediacji      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">liczba ugód zawartych przed mediatorem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">w tym zatwierdzono ugodę</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pow. 1 do 3 mies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ponad 3 mies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">razem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">w tym, w których projekt został zaakceptowany przez sędziego</t>
-  </si>
 </sst>
 </file>
 
@@ -611,7 +347,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="44">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -809,125 +545,8 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -980,12 +599,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFFF"/>
         <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1163,7 +776,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1302,190 +915,6 @@
     </xf>
     <xf numFmtId="164" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="9" borderId="2" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="9" borderId="2" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="2" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="9" borderId="3" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="9" borderId="2" xfId="32" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="9" borderId="8" xfId="32" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="9" borderId="3" xfId="32" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="7" borderId="4" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="34" fillId="10" borderId="2" xfId="32" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="38" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="32" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="37" fillId="7" borderId="2" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="7" borderId="2" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="38" fillId="7" borderId="2" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="39" fillId="7" borderId="2" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="7" borderId="2" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="7" borderId="3" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="37" fillId="9" borderId="2" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="38" fillId="9" borderId="2" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="37" fillId="9" borderId="2" xfId="32" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="2" xfId="32" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="37" fillId="7" borderId="2" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="7" borderId="7" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="7" borderId="6" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="37" fillId="9" borderId="4" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="37" fillId="9" borderId="2" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="7" borderId="2" xfId="32" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="2" xfId="32" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="2" xfId="32" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="7" borderId="2" xfId="32" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="7" borderId="2" xfId="32" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="7" borderId="2" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="36" fillId="7" borderId="8" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="7" borderId="3" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="2" xfId="33" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="3" xfId="33" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="42" fillId="7" borderId="2" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="43" fillId="7" borderId="2" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="43" fillId="7" borderId="3" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="9" borderId="2" xfId="32" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="36" fillId="7" borderId="2" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="36" fillId="7" borderId="2" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="2" xfId="33" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="3" xfId="33" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="7" borderId="2" xfId="32" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="10" borderId="2" xfId="32" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1586,14 +1015,14 @@
   </sheetPr>
   <dimension ref="A2:CM1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CH14" activeCellId="0" sqref="CH14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="CH14" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="86" style="0" width="12.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="86" style="0" width="12.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="119" min="119" style="0" width="22.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="120" min="120" style="0" width="11.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="121" min="121" style="0" width="11.57"/>
@@ -2422,8 +1851,8 @@
     <mergeCell ref="CL5:CL6"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2436,982 +1865,734 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:DS6"/>
+  <dimension ref="A2:CM6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="86" style="0" width="12.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="119" min="119" style="0" width="22.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="120" min="120" style="0" width="11.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="121" min="121" style="0" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="35" t="s">
+    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="38"/>
-      <c r="AP2" s="38"/>
-      <c r="AQ2" s="38"/>
-      <c r="AR2" s="38"/>
-      <c r="AS2" s="38"/>
-      <c r="AT2" s="38"/>
-      <c r="AU2" s="38"/>
-      <c r="AV2" s="38"/>
-      <c r="AW2" s="38"/>
-      <c r="AX2" s="38"/>
-      <c r="AY2" s="38"/>
-      <c r="AZ2" s="38"/>
-      <c r="BA2" s="38"/>
-      <c r="BB2" s="38"/>
-      <c r="BC2" s="38"/>
-      <c r="BD2" s="38"/>
-      <c r="BE2" s="38"/>
-      <c r="BF2" s="38"/>
-      <c r="BG2" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="BH2" s="36"/>
-      <c r="BI2" s="36"/>
-      <c r="BJ2" s="36"/>
-      <c r="BK2" s="36"/>
-      <c r="BL2" s="36"/>
-      <c r="BM2" s="36"/>
-      <c r="BN2" s="36"/>
-      <c r="BO2" s="36"/>
-      <c r="BP2" s="36"/>
-      <c r="BQ2" s="36"/>
-      <c r="BR2" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="BS2" s="39"/>
-      <c r="BT2" s="39"/>
-      <c r="BU2" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="BV2" s="36"/>
-      <c r="BW2" s="36"/>
-      <c r="BX2" s="36"/>
-      <c r="BY2" s="36"/>
-      <c r="BZ2" s="36"/>
-      <c r="CA2" s="36"/>
-      <c r="CB2" s="36"/>
-      <c r="CC2" s="36"/>
-      <c r="CD2" s="36"/>
-      <c r="CE2" s="36"/>
-      <c r="CF2" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="CG2" s="39"/>
-      <c r="CH2" s="39"/>
-      <c r="CI2" s="39"/>
-      <c r="CJ2" s="39"/>
-      <c r="CK2" s="39"/>
-      <c r="CL2" s="39"/>
-      <c r="CM2" s="39"/>
-      <c r="CN2" s="39"/>
-      <c r="CO2" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="CP2" s="39"/>
-      <c r="CQ2" s="39"/>
-      <c r="CR2" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="CS2" s="40"/>
-      <c r="CT2" s="40"/>
-      <c r="CU2" s="40"/>
-      <c r="CV2" s="40"/>
-      <c r="CW2" s="40"/>
-      <c r="CX2" s="40"/>
-      <c r="CY2" s="40"/>
-      <c r="CZ2" s="40"/>
-      <c r="DA2" s="40"/>
-      <c r="DB2" s="40"/>
-      <c r="DC2" s="40"/>
-      <c r="DD2" s="40"/>
-      <c r="DE2" s="40"/>
-      <c r="DF2" s="40"/>
-      <c r="DG2" s="40"/>
-      <c r="DH2" s="38" t="s">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="2"/>
+      <c r="AU2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="4"/>
+      <c r="AY2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ2" s="5"/>
+      <c r="BA2" s="5"/>
+      <c r="BB2" s="5"/>
+      <c r="BC2" s="5"/>
+      <c r="BD2" s="5"/>
+      <c r="BE2" s="5"/>
+      <c r="BF2" s="5"/>
+      <c r="BG2" s="5"/>
+      <c r="BH2" s="5"/>
+      <c r="BI2" s="5"/>
+      <c r="BJ2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BK2" s="4"/>
+      <c r="BL2" s="4"/>
+      <c r="BM2" s="4"/>
+      <c r="BN2" s="4"/>
+      <c r="BO2" s="4"/>
+      <c r="BP2" s="4"/>
+      <c r="BQ2" s="4"/>
+      <c r="BR2" s="4"/>
+      <c r="BS2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="BT2" s="4"/>
+      <c r="BU2" s="4"/>
+      <c r="BV2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW2" s="6"/>
+      <c r="BX2" s="6"/>
+      <c r="BY2" s="6"/>
+      <c r="BZ2" s="6"/>
+      <c r="CA2" s="6"/>
+      <c r="CB2" s="6"/>
+      <c r="CC2" s="6"/>
+      <c r="CD2" s="6"/>
+      <c r="CE2" s="6"/>
+      <c r="CF2" s="6"/>
+      <c r="CG2" s="6"/>
+      <c r="CH2" s="6"/>
+      <c r="CI2" s="6"/>
+      <c r="CJ2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="DI2" s="38"/>
-      <c r="DJ2" s="38"/>
-      <c r="DK2" s="38"/>
-      <c r="DL2" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="DM2" s="41"/>
-      <c r="DN2" s="41"/>
-      <c r="DO2" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="DP2" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="DQ2" s="43"/>
-      <c r="DR2" s="44"/>
-      <c r="DS2" s="45"/>
+      <c r="CK2" s="3"/>
+      <c r="CL2" s="3"/>
+      <c r="CM2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="38"/>
-      <c r="AM3" s="38"/>
-      <c r="AN3" s="38"/>
-      <c r="AO3" s="38"/>
-      <c r="AP3" s="38"/>
-      <c r="AQ3" s="38"/>
-      <c r="AR3" s="38"/>
-      <c r="AS3" s="38"/>
-      <c r="AT3" s="38"/>
-      <c r="AU3" s="38"/>
-      <c r="AV3" s="38"/>
-      <c r="AW3" s="38"/>
-      <c r="AX3" s="38"/>
-      <c r="AY3" s="38"/>
-      <c r="AZ3" s="38"/>
-      <c r="BA3" s="38"/>
-      <c r="BB3" s="38"/>
-      <c r="BC3" s="38"/>
-      <c r="BD3" s="38"/>
-      <c r="BE3" s="38"/>
-      <c r="BF3" s="38"/>
-      <c r="BG3" s="36"/>
-      <c r="BH3" s="36"/>
-      <c r="BI3" s="36"/>
-      <c r="BJ3" s="36"/>
-      <c r="BK3" s="36"/>
-      <c r="BL3" s="36"/>
-      <c r="BM3" s="36"/>
-      <c r="BN3" s="36"/>
-      <c r="BO3" s="36"/>
-      <c r="BP3" s="36"/>
-      <c r="BQ3" s="36"/>
-      <c r="BR3" s="39"/>
-      <c r="BS3" s="39"/>
-      <c r="BT3" s="39"/>
-      <c r="BU3" s="36"/>
-      <c r="BV3" s="36"/>
-      <c r="BW3" s="36"/>
-      <c r="BX3" s="36"/>
-      <c r="BY3" s="36"/>
-      <c r="BZ3" s="36"/>
-      <c r="CA3" s="36"/>
-      <c r="CB3" s="36"/>
-      <c r="CC3" s="36"/>
-      <c r="CD3" s="36"/>
-      <c r="CE3" s="36"/>
-      <c r="CF3" s="39"/>
-      <c r="CG3" s="39"/>
-      <c r="CH3" s="39"/>
-      <c r="CI3" s="39"/>
-      <c r="CJ3" s="39"/>
-      <c r="CK3" s="39"/>
-      <c r="CL3" s="39"/>
-      <c r="CM3" s="39"/>
-      <c r="CN3" s="39"/>
-      <c r="CO3" s="39"/>
-      <c r="CP3" s="39"/>
-      <c r="CQ3" s="39"/>
-      <c r="CR3" s="40"/>
-      <c r="CS3" s="40"/>
-      <c r="CT3" s="40"/>
-      <c r="CU3" s="40"/>
-      <c r="CV3" s="40"/>
-      <c r="CW3" s="40"/>
-      <c r="CX3" s="40"/>
-      <c r="CY3" s="40"/>
-      <c r="CZ3" s="40"/>
-      <c r="DA3" s="40"/>
-      <c r="DB3" s="40"/>
-      <c r="DC3" s="40"/>
-      <c r="DD3" s="40"/>
-      <c r="DE3" s="40"/>
-      <c r="DF3" s="40"/>
-      <c r="DG3" s="40"/>
-      <c r="DH3" s="38"/>
-      <c r="DI3" s="38"/>
-      <c r="DJ3" s="38"/>
-      <c r="DK3" s="38"/>
-      <c r="DL3" s="41"/>
-      <c r="DM3" s="41"/>
-      <c r="DN3" s="41"/>
-      <c r="DO3" s="42"/>
-      <c r="DP3" s="43"/>
-      <c r="DQ3" s="43"/>
-      <c r="DR3" s="44"/>
-      <c r="DS3" s="45"/>
+    <row r="3" customFormat="false" ht="57.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="2"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="5"/>
+      <c r="AZ3" s="5"/>
+      <c r="BA3" s="5"/>
+      <c r="BB3" s="5"/>
+      <c r="BC3" s="5"/>
+      <c r="BD3" s="5"/>
+      <c r="BE3" s="5"/>
+      <c r="BF3" s="5"/>
+      <c r="BG3" s="5"/>
+      <c r="BH3" s="5"/>
+      <c r="BI3" s="5"/>
+      <c r="BJ3" s="4"/>
+      <c r="BK3" s="4"/>
+      <c r="BL3" s="4"/>
+      <c r="BM3" s="4"/>
+      <c r="BN3" s="4"/>
+      <c r="BO3" s="4"/>
+      <c r="BP3" s="4"/>
+      <c r="BQ3" s="4"/>
+      <c r="BR3" s="4"/>
+      <c r="BS3" s="4"/>
+      <c r="BT3" s="4"/>
+      <c r="BU3" s="4"/>
+      <c r="BV3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="BW3" s="7"/>
+      <c r="BX3" s="7"/>
+      <c r="BY3" s="7"/>
+      <c r="BZ3" s="7"/>
+      <c r="CA3" s="7"/>
+      <c r="CB3" s="7"/>
+      <c r="CC3" s="7"/>
+      <c r="CD3" s="7"/>
+      <c r="CE3" s="7"/>
+      <c r="CF3" s="7"/>
+      <c r="CG3" s="7"/>
+      <c r="CH3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="CI3" s="8"/>
+      <c r="CJ3" s="3"/>
+      <c r="CK3" s="3"/>
+      <c r="CL3" s="3"/>
+      <c r="CM3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="46" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="D4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="E4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="F4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="47" t="s">
+      <c r="G4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="48" t="s">
+      <c r="H4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="47" t="s">
+      <c r="I4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="47" t="s">
+      <c r="J4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="47" t="s">
+      <c r="K4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="48" t="s">
+      <c r="L4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="48" t="s">
+      <c r="M4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="49" t="s">
+      <c r="N4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="46" t="s">
+      <c r="O4" s="11"/>
+      <c r="P4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46" t="s">
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46" t="s">
+      <c r="S4" s="9"/>
+      <c r="T4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46" t="s">
+      <c r="U4" s="9"/>
+      <c r="V4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="50" t="s">
+      <c r="W4" s="9"/>
+      <c r="X4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="Z4" s="50"/>
-      <c r="AA4" s="46" t="s">
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46" t="s">
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="46" t="s">
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AF4" s="46"/>
-      <c r="AG4" s="50" t="s">
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="AH4" s="50"/>
-      <c r="AI4" s="50" t="s">
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="AJ4" s="50"/>
-      <c r="AK4" s="49" t="s">
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="AL4" s="49"/>
-      <c r="AM4" s="46" t="s">
+      <c r="AK4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AN4" s="46"/>
-      <c r="AO4" s="46" t="s">
+      <c r="AL4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AP4" s="46"/>
-      <c r="AQ4" s="46" t="s">
+      <c r="AM4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AR4" s="46"/>
-      <c r="AS4" s="46" t="s">
+      <c r="AN4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AT4" s="46"/>
-      <c r="AU4" s="50" t="s">
+      <c r="AO4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AV4" s="50"/>
-      <c r="AW4" s="46" t="s">
+      <c r="AP4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AX4" s="46"/>
-      <c r="AY4" s="46" t="s">
+      <c r="AQ4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AZ4" s="46"/>
-      <c r="BA4" s="46" t="s">
+      <c r="AR4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="BB4" s="46"/>
-      <c r="BC4" s="50" t="s">
+      <c r="AS4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="BD4" s="50"/>
-      <c r="BE4" s="51" t="s">
+      <c r="AT4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="BF4" s="51"/>
-      <c r="BG4" s="52" t="s">
+      <c r="AU4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV4" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW4" s="16"/>
+      <c r="AX4" s="16"/>
+      <c r="AY4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="BH4" s="36" t="s">
+      <c r="AZ4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="BI4" s="36" t="s">
+      <c r="BA4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="BJ4" s="36" t="s">
+      <c r="BB4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="BK4" s="36" t="s">
+      <c r="BC4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="BL4" s="53" t="s">
+      <c r="BD4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="BM4" s="36" t="s">
+      <c r="BE4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="BN4" s="36" t="s">
+      <c r="BF4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="BO4" s="36" t="s">
+      <c r="BG4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="BP4" s="53" t="s">
+      <c r="BH4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="BQ4" s="53" t="s">
+      <c r="BI4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="BR4" s="54" t="s">
+      <c r="BJ4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="BK4" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="BL4" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="BM4" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="BN4" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="BO4" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="BP4" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="BQ4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR4" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="BS4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="BS4" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="BT4" s="55"/>
-      <c r="BU4" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="BV4" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="BW4" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="BX4" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="BY4" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="BZ4" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="CA4" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="CB4" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="CC4" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="CD4" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="CE4" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="CF4" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="CG4" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="CH4" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="CI4" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="CJ4" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="CK4" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="CL4" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="CM4" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="CN4" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="CO4" s="59" t="s">
+      <c r="BT4" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="BU4" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="BV4" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="BW4" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX4" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="BY4" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="BZ4" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="CA4" s="25"/>
+      <c r="CB4" s="25"/>
+      <c r="CC4" s="25"/>
+      <c r="CD4" s="25"/>
+      <c r="CE4" s="25"/>
+      <c r="CF4" s="25"/>
+      <c r="CG4" s="25"/>
+      <c r="CH4" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="CI4" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="CJ4" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="CK4" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="CL4" s="28"/>
+      <c r="CM4" s="29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q5" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="S5" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="T5" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="U5" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="V5" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="W5" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="X5" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y5" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA5" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB5" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC5" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD5" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE5" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF5" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG5" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH5" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI5" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ5" s="14"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="2"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="2"/>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="2"/>
+      <c r="AU5" s="15"/>
+      <c r="AV5" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW5" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="AX5" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY5" s="17"/>
+      <c r="AZ5" s="10"/>
+      <c r="BA5" s="10"/>
+      <c r="BB5" s="10"/>
+      <c r="BC5" s="10"/>
+      <c r="BD5" s="10"/>
+      <c r="BE5" s="10"/>
+      <c r="BF5" s="10"/>
+      <c r="BG5" s="10"/>
+      <c r="BH5" s="10"/>
+      <c r="BI5" s="10"/>
+      <c r="BJ5" s="12"/>
+      <c r="BK5" s="18"/>
+      <c r="BL5" s="19"/>
+      <c r="BM5" s="19"/>
+      <c r="BN5" s="19"/>
+      <c r="BO5" s="19"/>
+      <c r="BP5" s="19"/>
+      <c r="BQ5" s="19"/>
+      <c r="BR5" s="19"/>
+      <c r="BS5" s="20"/>
+      <c r="BT5" s="21"/>
+      <c r="BU5" s="21"/>
+      <c r="BV5" s="22"/>
+      <c r="BW5" s="23"/>
+      <c r="BX5" s="23"/>
+      <c r="BY5" s="24"/>
+      <c r="BZ5" s="25"/>
+      <c r="CA5" s="25"/>
+      <c r="CB5" s="25"/>
+      <c r="CC5" s="25"/>
+      <c r="CD5" s="25"/>
+      <c r="CE5" s="25"/>
+      <c r="CF5" s="25"/>
+      <c r="CG5" s="25"/>
+      <c r="CH5" s="26"/>
+      <c r="CI5" s="26"/>
+      <c r="CJ5" s="27"/>
+      <c r="CK5" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="CP4" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="CQ4" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="CR4" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="CS4" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT4" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="CU4" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="CV4" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="CW4" s="64"/>
-      <c r="CX4" s="64"/>
-      <c r="CY4" s="64"/>
-      <c r="CZ4" s="64"/>
-      <c r="DA4" s="64"/>
-      <c r="DB4" s="64"/>
-      <c r="DC4" s="64"/>
-      <c r="DD4" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="DE4" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="DF4" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="DG4" s="62"/>
-      <c r="DH4" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="DI4" s="67" t="s">
-        <v>43</v>
-      </c>
-      <c r="DJ4" s="67"/>
-      <c r="DK4" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="DL4" s="69" t="s">
-        <v>60</v>
-      </c>
-      <c r="DM4" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="DN4" s="70"/>
-      <c r="DO4" s="42"/>
-      <c r="DP4" s="43"/>
-      <c r="DQ4" s="43"/>
-      <c r="DR4" s="44"/>
-      <c r="DS4" s="45"/>
+      <c r="CL5" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="CM5" s="29"/>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="35"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="P5" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q5" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="R5" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="S5" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="T5" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="U5" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="V5" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="W5" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="X5" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y5" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z5" s="72" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA5" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB5" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC5" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD5" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE5" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF5" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG5" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH5" s="72" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI5" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ5" s="72" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK5" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL5" s="71" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM5" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="AN5" s="71" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO5" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP5" s="71" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ5" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="AR5" s="71" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS5" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="AT5" s="71" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU5" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="AV5" s="72" t="s">
-        <v>48</v>
-      </c>
-      <c r="AW5" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="AX5" s="71" t="s">
-        <v>46</v>
-      </c>
-      <c r="AY5" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="AZ5" s="71" t="s">
-        <v>46</v>
-      </c>
-      <c r="BA5" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="BB5" s="71" t="s">
-        <v>46</v>
-      </c>
-      <c r="BC5" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="BD5" s="72" t="s">
-        <v>48</v>
-      </c>
-      <c r="BE5" s="72" t="s">
-        <v>45</v>
-      </c>
-      <c r="BF5" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="BG5" s="52"/>
-      <c r="BH5" s="36"/>
-      <c r="BI5" s="36"/>
-      <c r="BJ5" s="36"/>
-      <c r="BK5" s="36"/>
-      <c r="BL5" s="53"/>
-      <c r="BM5" s="36"/>
-      <c r="BN5" s="36"/>
-      <c r="BO5" s="36"/>
-      <c r="BP5" s="53"/>
-      <c r="BQ5" s="53"/>
-      <c r="BR5" s="54"/>
-      <c r="BS5" s="74" t="s">
-        <v>49</v>
-      </c>
-      <c r="BT5" s="74" t="s">
-        <v>81</v>
-      </c>
-      <c r="BU5" s="46"/>
-      <c r="BV5" s="47"/>
-      <c r="BW5" s="47"/>
-      <c r="BX5" s="47"/>
-      <c r="BY5" s="47"/>
-      <c r="BZ5" s="48"/>
-      <c r="CA5" s="47"/>
-      <c r="CB5" s="47"/>
-      <c r="CC5" s="47"/>
-      <c r="CD5" s="48"/>
-      <c r="CE5" s="48"/>
-      <c r="CF5" s="56"/>
-      <c r="CG5" s="57"/>
-      <c r="CH5" s="58"/>
-      <c r="CI5" s="58"/>
-      <c r="CJ5" s="58"/>
-      <c r="CK5" s="58"/>
-      <c r="CL5" s="58"/>
-      <c r="CM5" s="58"/>
-      <c r="CN5" s="58"/>
-      <c r="CO5" s="59"/>
-      <c r="CP5" s="60"/>
-      <c r="CQ5" s="60"/>
-      <c r="CR5" s="61"/>
-      <c r="CS5" s="62"/>
-      <c r="CT5" s="62"/>
-      <c r="CU5" s="63"/>
-      <c r="CV5" s="64"/>
-      <c r="CW5" s="64"/>
-      <c r="CX5" s="64"/>
-      <c r="CY5" s="64"/>
-      <c r="CZ5" s="64"/>
-      <c r="DA5" s="64"/>
-      <c r="DB5" s="64"/>
-      <c r="DC5" s="64"/>
-      <c r="DD5" s="65"/>
-      <c r="DE5" s="65"/>
-      <c r="DF5" s="62"/>
-      <c r="DG5" s="62"/>
-      <c r="DH5" s="66"/>
-      <c r="DI5" s="75" t="s">
-        <v>23</v>
-      </c>
-      <c r="DJ5" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="DK5" s="68"/>
-      <c r="DL5" s="77" t="s">
-        <v>82</v>
-      </c>
-      <c r="DM5" s="77" t="s">
-        <v>83</v>
-      </c>
-      <c r="DN5" s="78" t="s">
-        <v>84</v>
-      </c>
-      <c r="DO5" s="42"/>
-      <c r="DP5" s="43"/>
-      <c r="DQ5" s="43"/>
-      <c r="DR5" s="44"/>
-      <c r="DS5" s="45"/>
-    </row>
-    <row r="6" customFormat="false" ht="105.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="71"/>
-      <c r="U6" s="71"/>
-      <c r="V6" s="71"/>
-      <c r="W6" s="71"/>
-      <c r="X6" s="71"/>
-      <c r="Y6" s="72"/>
-      <c r="Z6" s="72"/>
-      <c r="AA6" s="71"/>
-      <c r="AB6" s="71"/>
-      <c r="AC6" s="71"/>
-      <c r="AD6" s="71"/>
-      <c r="AE6" s="71"/>
-      <c r="AF6" s="71"/>
-      <c r="AG6" s="72"/>
-      <c r="AH6" s="72"/>
-      <c r="AI6" s="72"/>
-      <c r="AJ6" s="72"/>
-      <c r="AK6" s="71"/>
-      <c r="AL6" s="71"/>
-      <c r="AM6" s="71"/>
-      <c r="AN6" s="71"/>
-      <c r="AO6" s="71"/>
-      <c r="AP6" s="71"/>
-      <c r="AQ6" s="71"/>
-      <c r="AR6" s="71"/>
-      <c r="AS6" s="71"/>
-      <c r="AT6" s="71"/>
-      <c r="AU6" s="72"/>
-      <c r="AV6" s="72"/>
-      <c r="AW6" s="71"/>
-      <c r="AX6" s="71"/>
-      <c r="AY6" s="71"/>
-      <c r="AZ6" s="71"/>
-      <c r="BA6" s="71"/>
-      <c r="BB6" s="71"/>
-      <c r="BC6" s="72"/>
-      <c r="BD6" s="72"/>
-      <c r="BE6" s="72"/>
-      <c r="BF6" s="73"/>
-      <c r="BG6" s="52"/>
-      <c r="BH6" s="36"/>
-      <c r="BI6" s="36"/>
-      <c r="BJ6" s="36"/>
-      <c r="BK6" s="36"/>
-      <c r="BL6" s="53"/>
-      <c r="BM6" s="36"/>
-      <c r="BN6" s="36"/>
-      <c r="BO6" s="36"/>
-      <c r="BP6" s="53"/>
-      <c r="BQ6" s="53"/>
-      <c r="BR6" s="54"/>
-      <c r="BS6" s="74"/>
-      <c r="BT6" s="74"/>
-      <c r="BU6" s="46"/>
-      <c r="BV6" s="47"/>
-      <c r="BW6" s="47"/>
-      <c r="BX6" s="47"/>
-      <c r="BY6" s="47"/>
-      <c r="BZ6" s="48"/>
-      <c r="CA6" s="47"/>
-      <c r="CB6" s="47"/>
-      <c r="CC6" s="47"/>
-      <c r="CD6" s="48"/>
-      <c r="CE6" s="48"/>
-      <c r="CF6" s="56"/>
-      <c r="CG6" s="57"/>
-      <c r="CH6" s="58"/>
-      <c r="CI6" s="58"/>
-      <c r="CJ6" s="58"/>
-      <c r="CK6" s="58"/>
-      <c r="CL6" s="58"/>
-      <c r="CM6" s="58"/>
-      <c r="CN6" s="58"/>
-      <c r="CO6" s="59"/>
-      <c r="CP6" s="60"/>
-      <c r="CQ6" s="60"/>
-      <c r="CR6" s="61"/>
-      <c r="CS6" s="62"/>
-      <c r="CT6" s="62"/>
-      <c r="CU6" s="63"/>
-      <c r="CV6" s="79" t="s">
+    <row r="6" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="30"/>
+      <c r="AH6" s="30"/>
+      <c r="AI6" s="31"/>
+      <c r="AJ6" s="14"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="2"/>
+      <c r="AN6" s="2"/>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="2"/>
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="2"/>
+      <c r="AS6" s="2"/>
+      <c r="AT6" s="2"/>
+      <c r="AU6" s="15"/>
+      <c r="AV6" s="32"/>
+      <c r="AW6" s="32"/>
+      <c r="AX6" s="32"/>
+      <c r="AY6" s="17"/>
+      <c r="AZ6" s="10"/>
+      <c r="BA6" s="10"/>
+      <c r="BB6" s="10"/>
+      <c r="BC6" s="10"/>
+      <c r="BD6" s="10"/>
+      <c r="BE6" s="10"/>
+      <c r="BF6" s="10"/>
+      <c r="BG6" s="10"/>
+      <c r="BH6" s="10"/>
+      <c r="BI6" s="10"/>
+      <c r="BJ6" s="12"/>
+      <c r="BK6" s="18"/>
+      <c r="BL6" s="19"/>
+      <c r="BM6" s="19"/>
+      <c r="BN6" s="19"/>
+      <c r="BO6" s="19"/>
+      <c r="BP6" s="19"/>
+      <c r="BQ6" s="19"/>
+      <c r="BR6" s="19"/>
+      <c r="BS6" s="20"/>
+      <c r="BT6" s="21"/>
+      <c r="BU6" s="21"/>
+      <c r="BV6" s="22"/>
+      <c r="BW6" s="23"/>
+      <c r="BX6" s="23"/>
+      <c r="BY6" s="24"/>
+      <c r="BZ6" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="CW6" s="79" t="s">
+      <c r="CA6" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="CX6" s="79" t="s">
+      <c r="CB6" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="CY6" s="79" t="s">
+      <c r="CC6" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="CZ6" s="79" t="s">
-        <v>85</v>
-      </c>
-      <c r="DA6" s="79" t="s">
+      <c r="CD6" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="CE6" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="DB6" s="79" t="s">
-        <v>86</v>
-      </c>
-      <c r="DC6" s="79" t="s">
+      <c r="CF6" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="CG6" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="DD6" s="65"/>
-      <c r="DE6" s="65"/>
-      <c r="DF6" s="62" t="s">
-        <v>87</v>
-      </c>
-      <c r="DG6" s="62" t="s">
-        <v>88</v>
-      </c>
-      <c r="DH6" s="66"/>
-      <c r="DI6" s="75"/>
-      <c r="DJ6" s="76"/>
-      <c r="DK6" s="68"/>
-      <c r="DL6" s="77"/>
-      <c r="DM6" s="77"/>
-      <c r="DN6" s="78"/>
-      <c r="DO6" s="42"/>
-      <c r="DP6" s="80" t="s">
-        <v>45</v>
-      </c>
-      <c r="DQ6" s="80" t="s">
-        <v>46</v>
-      </c>
-      <c r="DR6" s="44"/>
-      <c r="DS6" s="45"/>
+      <c r="CH6" s="26"/>
+      <c r="CI6" s="26"/>
+      <c r="CJ6" s="27"/>
+      <c r="CK6" s="27"/>
+      <c r="CL6" s="27"/>
+      <c r="CM6" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="148">
+  <mergeCells count="108">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:N3"/>
-    <mergeCell ref="O2:AJ3"/>
-    <mergeCell ref="AK2:BF3"/>
-    <mergeCell ref="BG2:BQ3"/>
-    <mergeCell ref="BR2:BT3"/>
-    <mergeCell ref="BU2:CE3"/>
-    <mergeCell ref="CF2:CN3"/>
-    <mergeCell ref="CO2:CQ3"/>
-    <mergeCell ref="CR2:DG3"/>
-    <mergeCell ref="DH2:DK3"/>
-    <mergeCell ref="DL2:DN3"/>
-    <mergeCell ref="DO2:DO6"/>
-    <mergeCell ref="DP2:DQ5"/>
+    <mergeCell ref="C2:M3"/>
+    <mergeCell ref="N2:AI3"/>
+    <mergeCell ref="AJ2:AT3"/>
+    <mergeCell ref="AU2:AX3"/>
+    <mergeCell ref="AY2:BI3"/>
+    <mergeCell ref="BJ2:BR3"/>
+    <mergeCell ref="BS2:BU3"/>
+    <mergeCell ref="BV2:CI2"/>
+    <mergeCell ref="CJ2:CM3"/>
+    <mergeCell ref="BV3:CG3"/>
+    <mergeCell ref="CH3:CI3"/>
+    <mergeCell ref="C4:C6"/>
     <mergeCell ref="D4:D6"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
@@ -3422,29 +2603,38 @@
     <mergeCell ref="K4:K6"/>
     <mergeCell ref="L4:L6"/>
     <mergeCell ref="M4:M6"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AM4:AN4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AQ4:AR4"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AW4:AX4"/>
-    <mergeCell ref="AY4:AZ4"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="BC4:BD4"/>
-    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="AJ4:AJ6"/>
+    <mergeCell ref="AK4:AK6"/>
+    <mergeCell ref="AL4:AL6"/>
+    <mergeCell ref="AM4:AM6"/>
+    <mergeCell ref="AN4:AN6"/>
+    <mergeCell ref="AO4:AO6"/>
+    <mergeCell ref="AP4:AP6"/>
+    <mergeCell ref="AQ4:AQ6"/>
+    <mergeCell ref="AR4:AR6"/>
+    <mergeCell ref="AS4:AS6"/>
+    <mergeCell ref="AT4:AT6"/>
+    <mergeCell ref="AU4:AU6"/>
+    <mergeCell ref="AV4:AX4"/>
+    <mergeCell ref="AY4:AY6"/>
+    <mergeCell ref="AZ4:AZ6"/>
+    <mergeCell ref="BA4:BA6"/>
+    <mergeCell ref="BB4:BB6"/>
+    <mergeCell ref="BC4:BC6"/>
+    <mergeCell ref="BD4:BD6"/>
+    <mergeCell ref="BE4:BE6"/>
+    <mergeCell ref="BF4:BF6"/>
     <mergeCell ref="BG4:BG6"/>
     <mergeCell ref="BH4:BH6"/>
     <mergeCell ref="BI4:BI6"/>
@@ -3457,42 +2647,20 @@
     <mergeCell ref="BP4:BP6"/>
     <mergeCell ref="BQ4:BQ6"/>
     <mergeCell ref="BR4:BR6"/>
-    <mergeCell ref="BS4:BT4"/>
+    <mergeCell ref="BS4:BS6"/>
+    <mergeCell ref="BT4:BT6"/>
     <mergeCell ref="BU4:BU6"/>
     <mergeCell ref="BV4:BV6"/>
     <mergeCell ref="BW4:BW6"/>
     <mergeCell ref="BX4:BX6"/>
     <mergeCell ref="BY4:BY6"/>
-    <mergeCell ref="BZ4:BZ6"/>
-    <mergeCell ref="CA4:CA6"/>
-    <mergeCell ref="CB4:CB6"/>
-    <mergeCell ref="CC4:CC6"/>
-    <mergeCell ref="CD4:CD6"/>
-    <mergeCell ref="CE4:CE6"/>
-    <mergeCell ref="CF4:CF6"/>
-    <mergeCell ref="CG4:CG6"/>
+    <mergeCell ref="BZ4:CG5"/>
     <mergeCell ref="CH4:CH6"/>
     <mergeCell ref="CI4:CI6"/>
     <mergeCell ref="CJ4:CJ6"/>
-    <mergeCell ref="CK4:CK6"/>
-    <mergeCell ref="CL4:CL6"/>
+    <mergeCell ref="CK4:CL4"/>
     <mergeCell ref="CM4:CM6"/>
-    <mergeCell ref="CN4:CN6"/>
-    <mergeCell ref="CO4:CO6"/>
-    <mergeCell ref="CP4:CP6"/>
-    <mergeCell ref="CQ4:CQ6"/>
-    <mergeCell ref="CR4:CR6"/>
-    <mergeCell ref="CS4:CS6"/>
-    <mergeCell ref="CT4:CT6"/>
-    <mergeCell ref="CU4:CU6"/>
-    <mergeCell ref="CV4:DC5"/>
-    <mergeCell ref="DD4:DD6"/>
-    <mergeCell ref="DE4:DE6"/>
-    <mergeCell ref="DF4:DG5"/>
-    <mergeCell ref="DH4:DH6"/>
-    <mergeCell ref="DI4:DJ4"/>
-    <mergeCell ref="DK4:DK6"/>
-    <mergeCell ref="DM4:DN4"/>
+    <mergeCell ref="N5:N6"/>
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="Q5:Q6"/>
@@ -3514,40 +2682,15 @@
     <mergeCell ref="AG5:AG6"/>
     <mergeCell ref="AH5:AH6"/>
     <mergeCell ref="AI5:AI6"/>
-    <mergeCell ref="AJ5:AJ6"/>
-    <mergeCell ref="AK5:AK6"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AO5:AO6"/>
-    <mergeCell ref="AP5:AP6"/>
-    <mergeCell ref="AQ5:AQ6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="AU5:AU6"/>
     <mergeCell ref="AV5:AV6"/>
     <mergeCell ref="AW5:AW6"/>
     <mergeCell ref="AX5:AX6"/>
-    <mergeCell ref="AY5:AY6"/>
-    <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BC5:BC6"/>
-    <mergeCell ref="BD5:BD6"/>
-    <mergeCell ref="BE5:BE6"/>
-    <mergeCell ref="BF5:BF6"/>
-    <mergeCell ref="BS5:BS6"/>
-    <mergeCell ref="BT5:BT6"/>
-    <mergeCell ref="DI5:DI6"/>
-    <mergeCell ref="DJ5:DJ6"/>
-    <mergeCell ref="DL5:DL6"/>
-    <mergeCell ref="DM5:DM6"/>
-    <mergeCell ref="DN5:DN6"/>
+    <mergeCell ref="CK5:CK6"/>
+    <mergeCell ref="CL5:CL6"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
